--- a/test.xlsx
+++ b/test.xlsx
@@ -1239,7 +1239,7 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col collapsed="1" width="2.453125" customWidth="1" style="82" min="1" max="1"/>
     <col hidden="1" outlineLevel="1" width="8.90625" customWidth="1" style="82" min="2" max="2"/>
@@ -48116,7 +48116,7 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col collapsed="1" width="2.36328125" customWidth="1" style="48" min="1" max="1"/>
     <col hidden="1" outlineLevel="2" width="2.453125" customWidth="1" style="48" min="2" max="6"/>
@@ -55520,7 +55520,7 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17" outlineLevelCol="0"/>
   <cols>
     <col width="16" customWidth="1" style="82" min="3" max="3"/>
     <col width="45.26953125" customWidth="1" style="82" min="4" max="4"/>
